--- a/data/scheduling_DNN/predict/0.9/result6.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result6.xlsx
@@ -570,10 +570,10 @@
         <v>3.167232036590576</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.5262126326560974</v>
       </c>
       <c r="W2" t="n">
-        <v>7.164302349090576</v>
+        <v>6.974983215332031</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.404112100601196</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.5249543786048889</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8082262873649597</v>
+        <v>0.7729182839393616</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9456422328948975</v>
       </c>
       <c r="V4" t="n">
-        <v>0.838257908821106</v>
+        <v>0.8735213279724121</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01153139304369688</v>
+        <v>0.005201424937695265</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8893940448760986</v>
       </c>
       <c r="V5" t="n">
-        <v>0.652911365032196</v>
+        <v>0.5088680386543274</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05592405796051025</v>
+        <v>0.1448000371456146</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8721561431884766</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.3992083370685577</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04774913564324379</v>
+        <v>0.2236796319484711</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9303970336914062</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.523381233215332</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2629295289516449</v>
+        <v>0.1656618565320969</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.881749153137207</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.3999993205070496</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1421691626310349</v>
+        <v>0.2320829033851624</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8765780925750732</v>
       </c>
       <c r="V9" t="n">
-        <v>0.417632520198822</v>
+        <v>0.8733848333358765</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2106310427188873</v>
+        <v>1.019690444081789e-05</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8735430240631104</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.8701592087745667</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2078243643045425</v>
+        <v>1.145020632975502e-05</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9339530467987061</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.8787204623222351</v>
       </c>
       <c r="W11" t="n">
-        <v>0.07869676500558853</v>
+        <v>0.003050638362765312</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8872480392456055</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.4022786319255829</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2587436139583588</v>
+        <v>0.2351953238248825</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9296009540557861</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.8709704875946045</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1926129013299942</v>
+        <v>0.003437531646341085</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.891880989074707</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.4009073078632355</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1505981832742691</v>
+        <v>0.2410551607608795</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9860789775848389</v>
       </c>
       <c r="V15" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5180578231811523</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3765189647674561</v>
+        <v>0.2190438061952591</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9325368404388428</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.4003714621067047</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07740500569343567</v>
+        <v>0.2832000255584717</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9169769287109375</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.5275484323501587</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2969968914985657</v>
+        <v>0.1516545563936234</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9982678890228271</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.4003549814224243</v>
       </c>
       <c r="W18" t="n">
-        <v>0.02843189798295498</v>
+        <v>0.3574998378753662</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9128479957580566</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.521574854850769</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1679207384586334</v>
+        <v>0.1530946642160416</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9222478866577148</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.874476432800293</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1576703041791916</v>
+        <v>0.002282111905515194</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9135510921478271</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.5179456472396851</v>
       </c>
       <c r="W21" t="n">
-        <v>0.3167494535446167</v>
+        <v>0.1565036624670029</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.7137069702148438</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.8587366938591003</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0004414042923599482</v>
+        <v>0.02103362046182156</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.7073030471801758</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.5175707340240479</v>
       </c>
       <c r="W23" t="n">
-        <v>0.07205527275800705</v>
+        <v>0.03599835187196732</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5411200523376465</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.5264486074447632</v>
       </c>
       <c r="W24" t="n">
-        <v>0.001722663291729987</v>
+        <v>0.0002152512897737324</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5510289669036865</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.3997919261455536</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01030528172850609</v>
+        <v>0.02287264168262482</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5308189392089844</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.5156667828559875</v>
       </c>
       <c r="W26" t="n">
-        <v>0.003194502089172602</v>
+        <v>0.0002295878366567194</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5781209468841553</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.4009716808795929</v>
       </c>
       <c r="W27" t="n">
-        <v>0.007811689749360085</v>
+        <v>0.03138186410069466</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5183680057525635</v>
       </c>
       <c r="V28" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.8649853467941284</v>
       </c>
       <c r="W28" t="n">
-        <v>0.209194228053093</v>
+        <v>0.1201435774564743</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.556318998336792</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.8673105239868164</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03167366981506348</v>
+        <v>0.09671572595834732</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5419950485229492</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.8662518858909607</v>
       </c>
       <c r="W30" t="n">
-        <v>0.002617520280182362</v>
+        <v>0.1051424965262413</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5267479419708252</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.5134807229042053</v>
       </c>
       <c r="W31" t="n">
-        <v>1.168281301033858e-06</v>
+        <v>0.000176019108039327</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.579246997833252</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.4003413915634155</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01145635917782784</v>
+        <v>0.03200721740722656</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5367209911346436</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.8756852149963379</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03430050984025002</v>
+        <v>0.1148967444896698</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5306520462036133</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.867007315158844</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02319460920989513</v>
+        <v>0.1131348684430122</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5144469738006592</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.3992314636707306</v>
       </c>
       <c r="W35" t="n">
-        <v>0.002557603409513831</v>
+        <v>0.01327461376786232</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5168359279632568</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.8877841830253601</v>
       </c>
       <c r="W36" t="n">
-        <v>0.002269577700644732</v>
+        <v>0.1376026123762131</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5154819488525391</v>
       </c>
       <c r="V37" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.5253849029541016</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0371568500995636</v>
+        <v>9.806849993765354e-05</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5198900699615479</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.8613492250442505</v>
       </c>
       <c r="W38" t="n">
-        <v>3.498212390695699e-05</v>
+        <v>0.1165943518280983</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5173659324645996</v>
       </c>
       <c r="V39" t="n">
-        <v>0.975181519985199</v>
+        <v>0.5229129791259766</v>
       </c>
       <c r="W39" t="n">
-        <v>0.209595113992691</v>
+        <v>3.076972643611953e-05</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5195119380950928</v>
       </c>
       <c r="V40" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.3999156951904297</v>
       </c>
       <c r="W40" t="n">
-        <v>0.2084338814020157</v>
+        <v>0.01430326141417027</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5212240219116211</v>
       </c>
       <c r="V41" t="n">
-        <v>0.653493344783783</v>
+        <v>0.8674163818359375</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01749517396092415</v>
+        <v>0.1198491528630257</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4712200164794922</v>
       </c>
       <c r="V42" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.8692780137062073</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1111201196908951</v>
+        <v>0.1584501713514328</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4529068470001221</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.3991948068141937</v>
       </c>
       <c r="W43" t="n">
-        <v>0.002669008215889335</v>
+        <v>0.002884983317926526</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3916239738464355</v>
       </c>
       <c r="V44" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.4020180702209473</v>
       </c>
       <c r="W44" t="n">
-        <v>0.3410209119319916</v>
+        <v>0.000108037238533143</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3921079635620117</v>
       </c>
       <c r="V45" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.5321101546287537</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0004449339758139104</v>
+        <v>0.01960061304271221</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3887619972229004</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.5070288777351379</v>
       </c>
       <c r="W46" t="n">
-        <v>0.07009893655776978</v>
+        <v>0.01398705504834652</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.404749870300293</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.5263623595237732</v>
       </c>
       <c r="W47" t="n">
-        <v>0.009902041405439377</v>
+        <v>0.01478959713131189</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3937609195709229</v>
       </c>
       <c r="V48" t="n">
-        <v>0.97564297914505</v>
+        <v>0.8787274360656738</v>
       </c>
       <c r="W48" t="n">
-        <v>0.3385867178440094</v>
+        <v>0.2351925224065781</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4548780918121338</v>
       </c>
       <c r="V49" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.8709573149681091</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1494400352239609</v>
+        <v>0.17312191426754</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3898990154266357</v>
       </c>
       <c r="V50" t="n">
-        <v>0.802345335483551</v>
+        <v>0.401913970708847</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1701119691133499</v>
+        <v>0.0001443591463612393</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3914351463317871</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.8885264992713928</v>
       </c>
       <c r="W51" t="n">
-        <v>0.005190799478441477</v>
+        <v>0.2470998167991638</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3868470191955566</v>
       </c>
       <c r="V52" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.5235005021095276</v>
       </c>
       <c r="W52" t="n">
-        <v>0.001584874233230948</v>
+        <v>0.01867417432367802</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.38736891746521</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.4004198610782623</v>
       </c>
       <c r="W53" t="n">
-        <v>0.09322220832109451</v>
+        <v>0.0001703271263977513</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3908920288085938</v>
       </c>
       <c r="V54" t="n">
-        <v>0.490907609462738</v>
+        <v>0.5264668464660645</v>
       </c>
       <c r="W54" t="n">
-        <v>0.01000311598181725</v>
+        <v>0.01838053204119205</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4495871067047119</v>
       </c>
       <c r="V55" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.8830559849739075</v>
       </c>
       <c r="W55" t="n">
-        <v>0.06683842092752457</v>
+        <v>0.187895268201828</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3925981521606445</v>
       </c>
       <c r="V56" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.4003778100013733</v>
       </c>
       <c r="W56" t="n">
-        <v>0.000423823221353814</v>
+        <v>6.052307435311377e-05</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3888208866119385</v>
       </c>
       <c r="V57" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.8675817251205444</v>
       </c>
       <c r="W57" t="n">
-        <v>0.171314612030983</v>
+        <v>0.2292119413614273</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.43886399269104</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.8715224862098694</v>
       </c>
       <c r="W58" t="n">
-        <v>0.007631430402398109</v>
+        <v>0.1871933788061142</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3891241550445557</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.5316089987754822</v>
       </c>
       <c r="W59" t="n">
-        <v>0.03493034839630127</v>
+        <v>0.0203019306063652</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3865189552307129</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.5179684162139893</v>
       </c>
       <c r="W60" t="n">
-        <v>0.000206990385777317</v>
+        <v>0.01727895997464657</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3881959915161133</v>
       </c>
       <c r="V61" t="n">
-        <v>0.590633749961853</v>
+        <v>0.4019277989864349</v>
       </c>
       <c r="W61" t="n">
-        <v>0.04098104685544968</v>
+        <v>0.0001885625388240442</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.025092840194702</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.5092735290527344</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1381689012050629</v>
+        <v>0.2660695612430573</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8699619770050049</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.4000092446804047</v>
       </c>
       <c r="W63" t="n">
-        <v>0.08282438665628433</v>
+        <v>0.2208555638790131</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8683059215545654</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.4003848731517792</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1427979618310928</v>
+        <v>0.2189501076936722</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9314489364624023</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.5212003588676453</v>
       </c>
       <c r="W65" t="n">
-        <v>0.3359353840351105</v>
+        <v>0.1683038920164108</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8678009510040283</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.4019811153411865</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2027821987867355</v>
+        <v>0.2169881165027618</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8738498687744141</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.8877687454223633</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2081183344125748</v>
+        <v>0.000193735133507289</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9042618274688721</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.3992046713829041</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1942784786224365</v>
+        <v>0.2550827264785767</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9332449436187744</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.5212954878807068</v>
       </c>
       <c r="W69" t="n">
-        <v>0.07783480733633041</v>
+        <v>0.1697023510932922</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>1.078771114349365</v>
       </c>
       <c r="V70" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.4003221690654755</v>
       </c>
       <c r="W70" t="n">
-        <v>0.07767777144908905</v>
+        <v>0.4602929353713989</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8822128772735596</v>
       </c>
       <c r="V71" t="n">
-        <v>0.490370512008667</v>
+        <v>0.5261361598968506</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1535404324531555</v>
+        <v>0.1267906278371811</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8696539402008057</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.5321035981178284</v>
       </c>
       <c r="W72" t="n">
-        <v>0.08604756742715836</v>
+        <v>0.1139402315020561</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.913909912109375</v>
       </c>
       <c r="V73" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.3998160660266876</v>
       </c>
       <c r="W73" t="n">
-        <v>0.04238104820251465</v>
+        <v>0.2642925083637238</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8965461254119873</v>
       </c>
       <c r="V74" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.5189000368118286</v>
       </c>
       <c r="W74" t="n">
-        <v>0.2978893518447876</v>
+        <v>0.1426165699958801</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8689498901367188</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.8708274364471436</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2036795169115067</v>
+        <v>3.525180090946378e-06</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8827078342437744</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.5092158317565918</v>
       </c>
       <c r="W76" t="n">
-        <v>0.03366260230541229</v>
+        <v>0.1394962817430496</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8865110874176025</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.5049673318862915</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1786700934171677</v>
+        <v>0.1455756425857544</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.866753101348877</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.8717890977859497</v>
       </c>
       <c r="W78" t="n">
-        <v>0.08475556969642639</v>
+        <v>2.53612597589381e-05</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8675868511199951</v>
       </c>
       <c r="V79" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.5205934643745422</v>
       </c>
       <c r="W79" t="n">
-        <v>0.01158353965729475</v>
+        <v>0.1204044073820114</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8629810810089111</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.8752149939537048</v>
       </c>
       <c r="W80" t="n">
-        <v>0.08222721517086029</v>
+        <v>0.0001496686309110373</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8668689727783203</v>
       </c>
       <c r="V81" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.8698163628578186</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2449740171432495</v>
+        <v>8.687108675076161e-06</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5625960826873779</v>
       </c>
       <c r="V82" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.4001362919807434</v>
       </c>
       <c r="W82" t="n">
-        <v>0.07537565380334854</v>
+        <v>0.02639318443834782</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5548849105834961</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.871928334236145</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01883779279887676</v>
+        <v>0.1005165353417397</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5213749408721924</v>
       </c>
       <c r="V84" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.8751592040061951</v>
       </c>
       <c r="W84" t="n">
-        <v>0.07851922512054443</v>
+        <v>0.1251633018255234</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5215189456939697</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.8681195378303528</v>
       </c>
       <c r="W85" t="n">
-        <v>0.003324745921418071</v>
+        <v>0.1201319694519043</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5168092250823975</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.5250346064567566</v>
       </c>
       <c r="W86" t="n">
-        <v>0.005485690198838711</v>
+        <v>6.765689613530412e-05</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5132699012756348</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.4006533920764923</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0005021241959184408</v>
+        <v>0.01268247794359922</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.515678882598877</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.4003571569919586</v>
       </c>
       <c r="W88" t="n">
-        <v>0.02720138989388943</v>
+        <v>0.01329910010099411</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5146379470825195</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.3991923332214355</v>
       </c>
       <c r="W89" t="n">
-        <v>0.009402243420481682</v>
+        <v>0.01332768984138966</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5181679725646973</v>
       </c>
       <c r="V90" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8739602565765381</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01939406059682369</v>
+        <v>0.1265881508588791</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5433709621429443</v>
       </c>
       <c r="V91" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.8883077502250671</v>
       </c>
       <c r="W91" t="n">
-        <v>0.1868454366922379</v>
+        <v>0.1189813911914825</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5187199115753174</v>
       </c>
       <c r="V92" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.5267753601074219</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01812142319977283</v>
+        <v>6.489024963229895e-05</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5162639617919922</v>
       </c>
       <c r="V93" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.8731271624565125</v>
       </c>
       <c r="W93" t="n">
-        <v>0.01808939129114151</v>
+        <v>0.1273513436317444</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5133109092712402</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.5205612182617188</v>
       </c>
       <c r="W94" t="n">
-        <v>0.006623326800763607</v>
+        <v>5.256698204902932e-05</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5201830863952637</v>
       </c>
       <c r="V95" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.5260857343673706</v>
       </c>
       <c r="W95" t="n">
-        <v>0.02995040267705917</v>
+        <v>3.484125409158878e-05</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.575124979019165</v>
       </c>
       <c r="V96" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.5258995890617371</v>
       </c>
       <c r="W96" t="n">
-        <v>0.006063608918339014</v>
+        <v>0.002423139056190848</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5194261074066162</v>
       </c>
       <c r="V97" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.3999239802360535</v>
       </c>
       <c r="W97" t="n">
-        <v>0.02844921685755253</v>
+        <v>0.01428075879812241</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5185620784759521</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.8673285841941833</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0007757437997497618</v>
+        <v>0.1216380745172501</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5155520439147949</v>
       </c>
       <c r="V99" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.869129478931427</v>
       </c>
       <c r="W99" t="n">
-        <v>0.02715647220611572</v>
+        <v>0.1250170022249222</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5199511051177979</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.5262216925621033</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0002378450299147516</v>
+        <v>3.932026811526157e-05</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5420560836791992</v>
       </c>
       <c r="V101" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.4003690481185913</v>
       </c>
       <c r="W101" t="n">
-        <v>0.02916719391942024</v>
+        <v>0.02007521688938141</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4420690536499023</v>
       </c>
       <c r="V102" t="n">
-        <v>0.576347291469574</v>
+        <v>0.5141991972923279</v>
       </c>
       <c r="W102" t="n">
-        <v>0.01803064532577991</v>
+        <v>0.00520275766029954</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4139640331268311</v>
       </c>
       <c r="V103" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.8654994368553162</v>
       </c>
       <c r="W103" t="n">
-        <v>0.003996108192950487</v>
+        <v>0.2038842141628265</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3941290378570557</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.5209549069404602</v>
       </c>
       <c r="W104" t="n">
-        <v>0.004541283007711172</v>
+        <v>0.01608480140566826</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4021251201629639</v>
       </c>
       <c r="V105" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.8646109104156494</v>
       </c>
       <c r="W105" t="n">
-        <v>0.1865881979465485</v>
+        <v>0.2138931006193161</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3888130187988281</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.4020089507102966</v>
       </c>
       <c r="W106" t="n">
-        <v>0.1981675624847412</v>
+        <v>0.0001741326123010367</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3869071006774902</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.8776854872703552</v>
       </c>
       <c r="W107" t="n">
-        <v>0.04159686341881752</v>
+        <v>0.2408634275197983</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3894751071929932</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.507856011390686</v>
       </c>
       <c r="W108" t="n">
-        <v>0.01857556961476803</v>
+        <v>0.01401403825730085</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3875510692596436</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.8729125261306763</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01389954145997763</v>
+        <v>0.2355757504701614</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3908200263977051</v>
       </c>
       <c r="V110" t="n">
-        <v>0.708076536655426</v>
+        <v>0.5160632729530334</v>
       </c>
       <c r="W110" t="n">
-        <v>0.1006516963243484</v>
+        <v>0.01568587124347687</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3929450511932373</v>
       </c>
       <c r="V111" t="n">
-        <v>0.802417516708374</v>
+        <v>0.4000113308429718</v>
       </c>
       <c r="W111" t="n">
-        <v>0.1676677018404007</v>
+        <v>4.99323068652302e-05</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3923311233520508</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.3992674648761749</v>
       </c>
       <c r="W112" t="n">
-        <v>0.03382295742630959</v>
+        <v>4.8112833610503e-05</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3937950134277344</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.8736303448677063</v>
       </c>
       <c r="W113" t="n">
-        <v>0.009335970506072044</v>
+        <v>0.2302419394254684</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.389441967010498</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.5213658213615417</v>
       </c>
       <c r="W114" t="n">
-        <v>0.01820887625217438</v>
+        <v>0.01740390248596668</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.397819995880127</v>
       </c>
       <c r="V115" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.4000148475170135</v>
       </c>
       <c r="W115" t="n">
-        <v>0.3338250517845154</v>
+        <v>4.817373792320723e-06</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3987360000610352</v>
       </c>
       <c r="V116" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.3991735577583313</v>
       </c>
       <c r="W116" t="n">
-        <v>8.41877845232375e-05</v>
+        <v>1.914567349103891e-07</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3913397789001465</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.4008873105049133</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0006923460750840604</v>
+        <v>9.115535794990137e-05</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4122710227966309</v>
       </c>
       <c r="V118" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.4003896117210388</v>
       </c>
       <c r="W118" t="n">
-        <v>0.1520577818155289</v>
+        <v>0.0001411679259035736</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3941869735717773</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.3991802036762238</v>
       </c>
       <c r="W119" t="n">
-        <v>0.009274587035179138</v>
+        <v>2.49323475145502e-05</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.457205057144165</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.5168513655662537</v>
       </c>
       <c r="W120" t="n">
-        <v>0.0004378026351332664</v>
+        <v>0.003557682037353516</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.5027899742126465</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.3997890949249268</v>
       </c>
       <c r="W121" t="n">
-        <v>0.008142117410898209</v>
+        <v>0.01060918159782887</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8689439296722412</v>
       </c>
       <c r="V122" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.8688039779663086</v>
       </c>
       <c r="W122" t="n">
-        <v>0.01136020291596651</v>
+        <v>1.958647999344976e-08</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8908219337463379</v>
       </c>
       <c r="V123" t="n">
-        <v>0.417663037776947</v>
+        <v>0.5268869400024414</v>
       </c>
       <c r="W123" t="n">
-        <v>0.223879337310791</v>
+        <v>0.132448673248291</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.931210994720459</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.8616251349449158</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1159788966178894</v>
+        <v>0.004842191934585571</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8772821426391602</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.4023567736148834</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1712234914302826</v>
+        <v>0.2255541086196899</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8750848770141602</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.5135648846626282</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2092562168836594</v>
+        <v>0.1306966990232468</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.874798059463501</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.8876323103904724</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1225162073969841</v>
+        <v>0.0001647180033614859</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9408159255981445</v>
       </c>
       <c r="V128" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.5150182843208313</v>
       </c>
       <c r="W128" t="n">
-        <v>0.01970542967319489</v>
+        <v>0.1813036352396011</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8837559223175049</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.5289280414581299</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1287828236818314</v>
+        <v>0.1259028315544128</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8654310703277588</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.4003539681434631</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1293091177940369</v>
+        <v>0.2162967175245285</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8660948276519775</v>
       </c>
       <c r="V131" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.5264603495597839</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2655788362026215</v>
+        <v>0.1153515800833702</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9294381141662598</v>
       </c>
       <c r="V132" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.8724914193153381</v>
       </c>
       <c r="W132" t="n">
-        <v>0.0160185880959034</v>
+        <v>0.00324292597360909</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9595000743865967</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.3999250829219818</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2480416893959045</v>
+        <v>0.3131241500377655</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8669309616088867</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.3998132348060608</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2018701285123825</v>
+        <v>0.2181989699602127</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8834428787231445</v>
       </c>
       <c r="V135" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.4003826975822449</v>
       </c>
       <c r="W135" t="n">
-        <v>0.283723771572113</v>
+        <v>0.2333471328020096</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9176211357116699</v>
       </c>
       <c r="V136" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.399250715970993</v>
       </c>
       <c r="W136" t="n">
-        <v>0.0135396933183074</v>
+        <v>0.2687078714370728</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8771548271179199</v>
       </c>
       <c r="V137" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.3991973698139191</v>
       </c>
       <c r="W137" t="n">
-        <v>0.009611370973289013</v>
+        <v>0.2284433245658875</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8673210144042969</v>
       </c>
       <c r="V138" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.5263869166374207</v>
       </c>
       <c r="W138" t="n">
-        <v>0.2379959523677826</v>
+        <v>0.1162360608577728</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8726670742034912</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.8679426312446594</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2071360051631927</v>
+        <v>2.232036058558151e-05</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8932230472564697</v>
       </c>
       <c r="V140" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.400351345539093</v>
       </c>
       <c r="W140" t="n">
-        <v>0.2647654116153717</v>
+        <v>0.2429225146770477</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8777329921722412</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.3991792798042297</v>
       </c>
       <c r="W141" t="n">
-        <v>0.0318656750023365</v>
+        <v>0.2290136516094208</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5309648513793945</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.3997708857059479</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01521352306008339</v>
+        <v>0.01721185632050037</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5217170715332031</v>
       </c>
       <c r="V143" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.3991743624210358</v>
       </c>
       <c r="W143" t="n">
-        <v>0.02238549292087555</v>
+        <v>0.01501671597361565</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5491008758544922</v>
       </c>
       <c r="V144" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.3992383778095245</v>
       </c>
       <c r="W144" t="n">
-        <v>0.03933277353644371</v>
+        <v>0.02245876751840115</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5225908756256104</v>
       </c>
       <c r="V145" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.4003544449806213</v>
       </c>
       <c r="W145" t="n">
-        <v>0.07826749235391617</v>
+        <v>0.01494174543768167</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5217640399932861</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.5277850031852722</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0009680984076112509</v>
+        <v>3.625199678936042e-05</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5553059577941895</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.8640132546424866</v>
       </c>
       <c r="W147" t="n">
-        <v>0.004224004223942757</v>
+        <v>0.09530019760131836</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5254931449890137</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.8870579600334167</v>
       </c>
       <c r="W148" t="n">
-        <v>0.004792746156454086</v>
+        <v>0.1307291090488434</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5233750343322754</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.5668789744377136</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0003852508962154388</v>
+        <v>0.001892592757940292</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5240139961242676</v>
       </c>
       <c r="V150" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.4003831744194031</v>
       </c>
       <c r="W150" t="n">
-        <v>0.07880017161369324</v>
+        <v>0.01528458017855883</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5210261344909668</v>
       </c>
       <c r="V151" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.3991774320602417</v>
       </c>
       <c r="W151" t="n">
-        <v>0.07957665622234344</v>
+        <v>0.0148471063002944</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5267980098724365</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.5159274935722351</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0042708870023489</v>
+        <v>0.0001181681218440644</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5183980464935303</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.8817374110221863</v>
       </c>
       <c r="W153" t="n">
-        <v>0.03263526037335396</v>
+        <v>0.1320154964923859</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5185818672180176</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.523297905921936</v>
       </c>
       <c r="W154" t="n">
-        <v>0.02785574272274971</v>
+        <v>2.224102172476705e-05</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5758249759674072</v>
       </c>
       <c r="V155" t="n">
-        <v>0.975210964679718</v>
+        <v>0.3992434144020081</v>
       </c>
       <c r="W155" t="n">
-        <v>0.1595091670751572</v>
+        <v>0.03118104860186577</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5240299701690674</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.5084056854248047</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01132142543792725</v>
+        <v>0.0002441182732582092</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5309000015258789</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.4018683433532715</v>
       </c>
       <c r="W157" t="n">
-        <v>3.515720163704827e-05</v>
+        <v>0.01664916798472404</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5392780303955078</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.3999122381210327</v>
       </c>
       <c r="W158" t="n">
-        <v>0.01479090191423893</v>
+        <v>0.01942282356321812</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5395951271057129</v>
       </c>
       <c r="V159" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.3991997539997101</v>
       </c>
       <c r="W159" t="n">
-        <v>0.03566553443670273</v>
+        <v>0.01971086114645004</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.583798885345459</v>
       </c>
       <c r="V160" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.8733768463134766</v>
       </c>
       <c r="W160" t="n">
-        <v>0.01434947736561298</v>
+        <v>0.08385539799928665</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5275847911834717</v>
       </c>
       <c r="V161" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.4010108411312103</v>
       </c>
       <c r="W161" t="n">
-        <v>0.01926172338426113</v>
+        <v>0.01602096483111382</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3983168601989746</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.8789409995079041</v>
       </c>
       <c r="W162" t="n">
-        <v>0.01594260707497597</v>
+        <v>0.2309995591640472</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4094059467315674</v>
       </c>
       <c r="V163" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.8702875971794128</v>
       </c>
       <c r="W163" t="n">
-        <v>0.184243232011795</v>
+        <v>0.2124118953943253</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.398500919342041</v>
       </c>
       <c r="V164" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.401934027671814</v>
       </c>
       <c r="W164" t="n">
-        <v>0.09043429791927338</v>
+        <v>1.178623278974555e-05</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.4017469882965088</v>
       </c>
       <c r="V165" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.4003435969352722</v>
       </c>
       <c r="W165" t="n">
-        <v>0.1589780449867249</v>
+        <v>1.969507366084144e-06</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4928431510925293</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.5267753005027771</v>
       </c>
       <c r="W166" t="n">
-        <v>0.0001349326485069469</v>
+        <v>0.001151390722952783</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4006388187408447</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.4022223055362701</v>
       </c>
       <c r="W167" t="n">
-        <v>0.00028473642305471</v>
+        <v>2.507430508558173e-06</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4077339172363281</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.5146886110305786</v>
       </c>
       <c r="W168" t="n">
-        <v>9.852708171820268e-05</v>
+        <v>0.01143930666148663</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3965508937835693</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.4009076654911041</v>
       </c>
       <c r="W169" t="n">
-        <v>0.0004405356594361365</v>
+        <v>1.898146001622081e-05</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3955140113830566</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.875341534614563</v>
       </c>
       <c r="W170" t="n">
-        <v>0.03669901192188263</v>
+        <v>0.2302344590425491</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3903357982635498</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.5250053405761719</v>
       </c>
       <c r="W171" t="n">
-        <v>0.01009115017950535</v>
+        <v>0.01813588477671146</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4547970294952393</v>
       </c>
       <c r="V172" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.4000242650508881</v>
       </c>
       <c r="W172" t="n">
-        <v>0.1223941072821617</v>
+        <v>0.003000055672600865</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4022529125213623</v>
       </c>
       <c r="V173" t="n">
-        <v>0.490329772233963</v>
+        <v>0.8689568638801575</v>
       </c>
       <c r="W173" t="n">
-        <v>0.007757533341646194</v>
+        <v>0.2178125828504562</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4036719799041748</v>
       </c>
       <c r="V174" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.5280846357345581</v>
       </c>
       <c r="W174" t="n">
-        <v>0.002799159148707986</v>
+        <v>0.01547850854694843</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.394834041595459</v>
       </c>
       <c r="V175" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.5227149128913879</v>
       </c>
       <c r="W175" t="n">
-        <v>0.06709804385900497</v>
+        <v>0.01635351777076721</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3987739086151123</v>
       </c>
       <c r="V176" t="n">
-        <v>0.490833193063736</v>
+        <v>0.3998126685619354</v>
       </c>
       <c r="W176" t="n">
-        <v>0.008474911563098431</v>
+        <v>1.079022240446648e-06</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4007768630981445</v>
       </c>
       <c r="V177" t="n">
-        <v>0.371780127286911</v>
+        <v>0.8885601162910461</v>
       </c>
       <c r="W177" t="n">
-        <v>0.0008408107096329331</v>
+        <v>0.2379325032234192</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.448930025100708</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.4008909165859222</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0009846388129517436</v>
+        <v>0.002307755872607231</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3948919773101807</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.870414674282074</v>
       </c>
       <c r="W179" t="n">
-        <v>0.09261637926101685</v>
+        <v>0.2261218279600143</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3952810764312744</v>
       </c>
       <c r="V180" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.8686376214027405</v>
       </c>
       <c r="W180" t="n">
-        <v>0.1641426086425781</v>
+        <v>0.2240664213895798</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4066030979156494</v>
       </c>
       <c r="V181" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.5226230621337891</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0008255827124230564</v>
+        <v>0.01346063241362572</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8780241012573242</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.8758001923561096</v>
       </c>
       <c r="W182" t="n">
-        <v>0.09120698273181915</v>
+        <v>4.945770797348814e-06</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9284200668334961</v>
       </c>
       <c r="V183" t="n">
-        <v>0.699232816696167</v>
+        <v>0.8727900385856628</v>
       </c>
       <c r="W183" t="n">
-        <v>0.05252679437398911</v>
+        <v>0.003094699932262301</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8708159923553467</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.5228136777877808</v>
       </c>
       <c r="W184" t="n">
-        <v>0.04708478599786758</v>
+        <v>0.1211056113243103</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8763139247894287</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.5075873136520386</v>
       </c>
       <c r="W185" t="n">
-        <v>0.08626695722341537</v>
+        <v>0.1359593123197556</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8720200061798096</v>
       </c>
       <c r="V186" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.5286768674850464</v>
       </c>
       <c r="W186" t="n">
-        <v>0.08754297345876694</v>
+        <v>0.1178845092654228</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9399688243865967</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.8855875730514526</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1594928354024887</v>
+        <v>0.002957320539280772</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.873917818069458</v>
       </c>
       <c r="V188" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.8691980242729187</v>
       </c>
       <c r="W188" t="n">
-        <v>0.001578620751388371</v>
+        <v>2.227645381935872e-05</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8764328956604004</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.8689125180244446</v>
       </c>
       <c r="W189" t="n">
-        <v>0.08645851910114288</v>
+        <v>5.655608038068749e-05</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8718578815460205</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.8683765530586243</v>
       </c>
       <c r="W190" t="n">
-        <v>0.13465915620327</v>
+        <v>1.21196480904473e-05</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9405422210693359</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.4009813368320465</v>
       </c>
       <c r="W191" t="n">
-        <v>0.273503303527832</v>
+        <v>0.2911259829998016</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8910238742828369</v>
       </c>
       <c r="V192" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.527631402015686</v>
       </c>
       <c r="W192" t="n">
-        <v>0.03932962939143181</v>
+        <v>0.1320540904998779</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>1.038957834243774</v>
       </c>
       <c r="V193" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.8757005929946899</v>
       </c>
       <c r="W193" t="n">
-        <v>0.05613650754094124</v>
+        <v>0.02665292657911777</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9335501194000244</v>
       </c>
       <c r="V194" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.5237757563591003</v>
       </c>
       <c r="W194" t="n">
-        <v>0.01770295947790146</v>
+        <v>0.1679150313138962</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9252970218658447</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.8685503602027893</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1766331046819687</v>
+        <v>0.003220183541998267</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8666849136352539</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.525088906288147</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1579901278018951</v>
+        <v>0.1166878342628479</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8695650100708008</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.8726969957351685</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2042408734560013</v>
+        <v>9.809334187593777e-06</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8755500316619873</v>
       </c>
       <c r="V198" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.8700059056282043</v>
       </c>
       <c r="W198" t="n">
-        <v>0.005369727965444326</v>
+        <v>3.073733387282118e-05</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9040899276733398</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.8628222942352295</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1440876871347427</v>
+        <v>0.001703017624095082</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8684718608856201</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.8736112713813782</v>
       </c>
       <c r="W200" t="n">
-        <v>0.132166787981987</v>
+        <v>2.641353967192117e-05</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8767650127410889</v>
       </c>
       <c r="V201" t="n">
-        <v>0.505433976650238</v>
+        <v>0.4009182751178741</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1378867328166962</v>
+        <v>0.2264301180839539</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5225908756256104</v>
       </c>
       <c r="V202" t="n">
-        <v>0.653571605682373</v>
+        <v>0.5171456336975098</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01715595088899136</v>
+        <v>2.965066050819587e-05</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.575247049331665</v>
       </c>
       <c r="V203" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.5208603143692017</v>
       </c>
       <c r="W203" t="n">
-        <v>0.1606664806604385</v>
+        <v>0.002957917051389813</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5330410003662109</v>
       </c>
       <c r="V204" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.8845808506011963</v>
       </c>
       <c r="W204" t="n">
-        <v>0.1958402693271637</v>
+        <v>0.1235802695155144</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5222020149230957</v>
       </c>
       <c r="V205" t="n">
-        <v>0.800457239151001</v>
+        <v>0.8691930174827576</v>
       </c>
       <c r="W205" t="n">
-        <v>0.07742597162723541</v>
+        <v>0.1204027533531189</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5206129550933838</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.3991994857788086</v>
       </c>
       <c r="W206" t="n">
-        <v>0.02884752117097378</v>
+        <v>0.01474123075604439</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5229430198669434</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.3992140889167786</v>
       </c>
       <c r="W207" t="n">
-        <v>0.001028032624162734</v>
+        <v>0.01530884858220816</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5288169384002686</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.5196848511695862</v>
       </c>
       <c r="W208" t="n">
-        <v>0.004268219228833914</v>
+        <v>8.339501800946891e-05</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5241458415985107</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.532311737537384</v>
       </c>
       <c r="W209" t="n">
-        <v>0.001139430445618927</v>
+        <v>6.668185960734263e-05</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5320758819580078</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.8827105164527893</v>
       </c>
       <c r="W210" t="n">
-        <v>5.874458656762727e-05</v>
+        <v>0.1229446455836296</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5268800258636475</v>
       </c>
       <c r="V211" t="n">
-        <v>0.503772497177124</v>
+        <v>0.867883563041687</v>
       </c>
       <c r="W211" t="n">
-        <v>0.0005339579074643552</v>
+        <v>0.1162834092974663</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5245158672332764</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.8754265904426575</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0003760825493372977</v>
+        <v>0.1231383383274078</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5290980339050293</v>
       </c>
       <c r="V213" t="n">
-        <v>0.417630136013031</v>
+        <v>0.4003371894359589</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01242509204894304</v>
+        <v>0.01657935418188572</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5553569793701172</v>
       </c>
       <c r="V214" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.5222977995872498</v>
       </c>
       <c r="W214" t="n">
-        <v>0.1765788495540619</v>
+        <v>0.001092909369617701</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5244209766387939</v>
       </c>
       <c r="V215" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.8897783160209656</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01650219783186913</v>
+        <v>0.1334859877824783</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5262329578399658</v>
       </c>
       <c r="V216" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.8837891221046448</v>
       </c>
       <c r="W216" t="n">
-        <v>0.07750845700502396</v>
+        <v>0.1278464049100876</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5246539115905762</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.4008864760398865</v>
       </c>
       <c r="W217" t="n">
-        <v>1.804961868856481e-08</v>
+        <v>0.01531837787479162</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5219841003417969</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.3992030024528503</v>
       </c>
       <c r="W218" t="n">
-        <v>0.0003128117823507637</v>
+        <v>0.01507519837468863</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5761749744415283</v>
       </c>
       <c r="V219" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.867831826210022</v>
       </c>
       <c r="W219" t="n">
-        <v>0.005980831105262041</v>
+        <v>0.08506371825933456</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5279750823974609</v>
       </c>
       <c r="V220" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.5273124575614929</v>
       </c>
       <c r="W220" t="n">
-        <v>0.02241982147097588</v>
+        <v>4.390716696889285e-07</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.523306131362915</v>
       </c>
       <c r="V221" t="n">
-        <v>0.524641752243042</v>
+        <v>0.5205187797546387</v>
       </c>
       <c r="W221" t="n">
-        <v>1.783883135431097e-06</v>
+        <v>7.769329386064783e-06</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3898880481719971</v>
       </c>
       <c r="V222" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.8663760423660278</v>
       </c>
       <c r="W222" t="n">
-        <v>0.0001330655941274017</v>
+        <v>0.2270408123731613</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3953080177307129</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.5288738608360291</v>
       </c>
       <c r="W223" t="n">
-        <v>0.00432982575148344</v>
+        <v>0.01783983409404755</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3944268226623535</v>
       </c>
       <c r="V224" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.8668226003646851</v>
       </c>
       <c r="W224" t="n">
-        <v>0.09837644547224045</v>
+        <v>0.2231577634811401</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.397845983505249</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.5455102324485779</v>
       </c>
       <c r="W225" t="n">
-        <v>0.06527700275182724</v>
+        <v>0.02180473133921623</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3971030712127686</v>
       </c>
       <c r="V226" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.3992605805397034</v>
       </c>
       <c r="W226" t="n">
-        <v>0.1909702867269516</v>
+        <v>4.65484663436655e-06</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3997070789337158</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.8923482298851013</v>
       </c>
       <c r="W227" t="n">
-        <v>0.008324980735778809</v>
+        <v>0.2426953017711639</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3976969718933105</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.3998044729232788</v>
       </c>
       <c r="W228" t="n">
-        <v>0.08329816162586212</v>
+        <v>4.441560577106429e-06</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4578390121459961</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.5677734613418579</v>
       </c>
       <c r="W229" t="n">
-        <v>0.00452437624335289</v>
+        <v>0.01208558306097984</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3946430683135986</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.4009182155132294</v>
       </c>
       <c r="W230" t="n">
-        <v>0.03703667595982552</v>
+        <v>3.937747169402428e-05</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4275059700012207</v>
       </c>
       <c r="V231" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.521626353263855</v>
       </c>
       <c r="W231" t="n">
-        <v>0.1617448776960373</v>
+        <v>0.008858646266162395</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4035358428955078</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.4019784331321716</v>
       </c>
       <c r="W232" t="n">
-        <v>0.003317086258903146</v>
+        <v>2.425525281068985e-06</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4098629951477051</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.4009722769260406</v>
       </c>
       <c r="W233" t="n">
-        <v>0.008788280189037323</v>
+        <v>7.904486847110093e-05</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3988161087036133</v>
       </c>
       <c r="V234" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.8674609065055847</v>
       </c>
       <c r="W234" t="n">
-        <v>0.0007332295062951744</v>
+        <v>0.2196279466152191</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3977689743041992</v>
       </c>
       <c r="V235" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.3997670710086823</v>
       </c>
       <c r="W235" t="n">
-        <v>0.06533665210008621</v>
+        <v>3.992390247731237e-06</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3982951641082764</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.4003737568855286</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06529244035482407</v>
+        <v>4.320547759562032e-06</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4509050846099854</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.8813282251358032</v>
       </c>
       <c r="W237" t="n">
-        <v>0.01724621094763279</v>
+        <v>0.1852640807628632</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3926410675048828</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.5177820920944214</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01787314377725124</v>
+        <v>0.01566027663648129</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3908169269561768</v>
       </c>
       <c r="V239" t="n">
-        <v>0.801636278629303</v>
+        <v>0.5227910876274109</v>
       </c>
       <c r="W239" t="n">
-        <v>0.1687725335359573</v>
+        <v>0.0174171794205904</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3909370899200439</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.5089696645736694</v>
       </c>
       <c r="W240" t="n">
-        <v>0.01792127452790737</v>
+        <v>0.0139316888526082</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3945589065551758</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.5207898616790771</v>
       </c>
       <c r="W241" t="n">
-        <v>0.009176631458103657</v>
+        <v>0.01593425311148167</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8967499732971191</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.4003817141056061</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1026942431926727</v>
+        <v>0.2463814467191696</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8810999393463135</v>
       </c>
       <c r="V243" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.8675286173820496</v>
       </c>
       <c r="W243" t="n">
-        <v>0.2812385857105255</v>
+        <v>0.0001841807825258002</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8963069915771484</v>
       </c>
       <c r="V244" t="n">
-        <v>0.35074183344841</v>
+        <v>0.5328876972198486</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2976413071155548</v>
+        <v>0.1320735812187195</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8787069320678711</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.4000131487846375</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2126728892326355</v>
+        <v>0.229147732257843</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9178488254547119</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.897464394569397</v>
       </c>
       <c r="W246" t="n">
-        <v>0.07008615881204605</v>
+        <v>0.0004155250207986683</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8813159465789795</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.5279252529144287</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1742957681417465</v>
+        <v>0.1248849853873253</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8960199356079102</v>
       </c>
       <c r="V248" t="n">
-        <v>0.405481219291687</v>
+        <v>0.3997713923454285</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2406282275915146</v>
+        <v>0.2462626099586487</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8962609767913818</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.8900670409202576</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1381409913301468</v>
+        <v>3.83648402930703e-05</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.938507080078125</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.4009954035282135</v>
       </c>
       <c r="W250" t="n">
-        <v>0.3441621661186218</v>
+        <v>0.2889188230037689</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8854689598083496</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.5150526165962219</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1557827144861221</v>
+        <v>0.1372082680463791</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8799130916595459</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.5185385346412659</v>
       </c>
       <c r="W252" t="n">
-        <v>0.05123726651072502</v>
+        <v>0.1305915713310242</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8796958923339844</v>
       </c>
       <c r="V253" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.4020133912563324</v>
       </c>
       <c r="W253" t="n">
-        <v>0.001722970046103001</v>
+        <v>0.2281805723905563</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9464190006256104</v>
       </c>
       <c r="V254" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.5201708078384399</v>
       </c>
       <c r="W254" t="n">
-        <v>0.01269991602748632</v>
+        <v>0.181687518954277</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8841180801391602</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.3992634415626526</v>
       </c>
       <c r="W255" t="n">
-        <v>0.129113033413887</v>
+        <v>0.2350840270519257</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8769199848175049</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.8894442319869995</v>
       </c>
       <c r="W256" t="n">
-        <v>0.0507342629134655</v>
+        <v>0.0001568567677168176</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8813910484313965</v>
       </c>
       <c r="V257" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.8879773020744324</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2815801501274109</v>
+        <v>4.337873542681336e-05</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9251289367675781</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.877167284488678</v>
       </c>
       <c r="W258" t="n">
-        <v>0.07361980527639389</v>
+        <v>0.002300320193171501</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8804678916931152</v>
       </c>
       <c r="V259" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.4003459215164185</v>
       </c>
       <c r="W259" t="n">
-        <v>0.03128801286220551</v>
+        <v>0.230517104268074</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8741600513458252</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.4022478461265564</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1362051367759705</v>
+        <v>0.2227011322975159</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8746449947357178</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.400371640920639</v>
       </c>
       <c r="W261" t="n">
-        <v>0.08906898647546768</v>
+        <v>0.2249352186918259</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5848910808563232</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.3991929888725281</v>
       </c>
       <c r="W262" t="n">
-        <v>0.02797752059996128</v>
+        <v>0.03448378294706345</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5360989570617676</v>
       </c>
       <c r="V263" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.8924086093902588</v>
       </c>
       <c r="W263" t="n">
-        <v>0.02456752397119999</v>
+        <v>0.1269565671682358</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.526386022567749</v>
       </c>
       <c r="V264" t="n">
-        <v>0.417652815580368</v>
+        <v>0.8658850789070129</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01182291004806757</v>
+        <v>0.1152596101164818</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.529965877532959</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.8892914056777954</v>
       </c>
       <c r="W265" t="n">
-        <v>0.004739146213978529</v>
+        <v>0.1291148364543915</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5243890285491943</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.5264467597007751</v>
       </c>
       <c r="W266" t="n">
-        <v>0.003378898836672306</v>
+        <v>4.234257630741922e-06</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5340449810028076</v>
       </c>
       <c r="V267" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.5284252762794495</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01436881814152002</v>
+        <v>3.158107938361354e-05</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5288372039794922</v>
       </c>
       <c r="V268" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.8715126514434814</v>
       </c>
       <c r="W268" t="n">
-        <v>0.02456731908023357</v>
+        <v>0.1174264624714851</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5306789875030518</v>
       </c>
       <c r="V269" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.4009169936180115</v>
       </c>
       <c r="W269" t="n">
-        <v>3.439237116253935e-05</v>
+        <v>0.01683817431330681</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5343441963195801</v>
       </c>
       <c r="V270" t="n">
-        <v>0.417653352022171</v>
+        <v>0.5247806906700134</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01361675281077623</v>
+        <v>9.146064257947728e-05</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5286099910736084</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.5284099578857422</v>
       </c>
       <c r="W271" t="n">
-        <v>0.03136993199586868</v>
+        <v>4.001327624791884e-08</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5500049591064453</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.400152713060379</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01063086371868849</v>
+        <v>0.02245569601655006</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5278940200805664</v>
       </c>
       <c r="V273" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.3991973996162415</v>
       </c>
       <c r="W273" t="n">
-        <v>0.02431901171803474</v>
+        <v>0.016562819480896</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5435159206390381</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.8679412007331848</v>
       </c>
       <c r="W274" t="n">
-        <v>0.006722072139382362</v>
+        <v>0.1052517592906952</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5272839069366455</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.8729149103164673</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0004869713739026338</v>
+        <v>0.119460791349411</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5261969566345215</v>
       </c>
       <c r="V276" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.5083242654800415</v>
       </c>
       <c r="W276" t="n">
-        <v>0.07716530561447144</v>
+        <v>0.0003194330784026533</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.531702995300293</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.568022608757019</v>
       </c>
       <c r="W277" t="n">
-        <v>0.00198078528046608</v>
+        <v>0.001319114351645112</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5773441791534424</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.4003289937973022</v>
       </c>
       <c r="W278" t="n">
-        <v>0.005982435308396816</v>
+        <v>0.03133437409996986</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5329620838165283</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.5252907872200012</v>
       </c>
       <c r="W279" t="n">
-        <v>0.001869657309725881</v>
+        <v>5.88487928325776e-05</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5262889862060547</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.8782183527946472</v>
       </c>
       <c r="W280" t="n">
-        <v>0.003905057907104492</v>
+        <v>0.1238542795181274</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5365738868713379</v>
       </c>
       <c r="V281" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.4018677175045013</v>
       </c>
       <c r="W281" t="n">
-        <v>0.1927234679460526</v>
+        <v>0.01814575120806694</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.411963939666748</v>
       </c>
       <c r="V282" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.5023341178894043</v>
       </c>
       <c r="W282" t="n">
-        <v>0.008673517033457756</v>
+        <v>0.00816676951944828</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4049649238586426</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.5234014391899109</v>
       </c>
       <c r="W283" t="n">
-        <v>0.0624074675142765</v>
+        <v>0.01402720808982849</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4051148891448975</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.5180578827857971</v>
       </c>
       <c r="W284" t="n">
-        <v>0.007175420876592398</v>
+        <v>0.01275611948221922</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4043929576873779</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.5223312377929688</v>
       </c>
       <c r="W285" t="n">
-        <v>0.06138734892010689</v>
+        <v>0.01390943769365549</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4033989906311035</v>
       </c>
       <c r="V286" t="n">
-        <v>0.655465304851532</v>
+        <v>0.3992123305797577</v>
       </c>
       <c r="W286" t="n">
-        <v>0.06353742629289627</v>
+        <v>1.752812204358634e-05</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4018690586090088</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.8695904612541199</v>
       </c>
       <c r="W287" t="n">
-        <v>0.01065854914486408</v>
+        <v>0.2187633067369461</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4015181064605713</v>
       </c>
       <c r="V288" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.8784924149513245</v>
       </c>
       <c r="W288" t="n">
-        <v>0.0008778665796853602</v>
+        <v>0.2275044918060303</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4263439178466797</v>
       </c>
       <c r="V289" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.881134033203125</v>
       </c>
       <c r="W289" t="n">
-        <v>0.005715810228139162</v>
+        <v>0.2068340480327606</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3996281623840332</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.887747585773468</v>
       </c>
       <c r="W290" t="n">
-        <v>0.06433563679456711</v>
+        <v>0.2382605671882629</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.401324987411499</v>
       </c>
       <c r="V291" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.3991808593273163</v>
       </c>
       <c r="W291" t="n">
-        <v>0.002947779139503837</v>
+        <v>4.597285169438692e-06</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4175078868865967</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.401910811662674</v>
       </c>
       <c r="W292" t="n">
-        <v>0.005210512317717075</v>
+        <v>0.0002432687615510076</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4027259349822998</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.8735228776931763</v>
       </c>
       <c r="W293" t="n">
-        <v>0.003449927782639861</v>
+        <v>0.2216497659683228</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3996129035949707</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.8740657567977905</v>
       </c>
       <c r="W294" t="n">
-        <v>0.01561209838837385</v>
+        <v>0.2251055091619492</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3984138965606689</v>
       </c>
       <c r="V295" t="n">
-        <v>0.654336154460907</v>
+        <v>0.3991875350475311</v>
       </c>
       <c r="W295" t="n">
-        <v>0.06549619883298874</v>
+        <v>5.985165216770838e-07</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4002411365509033</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.3992645144462585</v>
       </c>
       <c r="W296" t="n">
-        <v>0.004042678512632847</v>
+        <v>9.537907317280769e-07</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4017670154571533</v>
       </c>
       <c r="V297" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.39999720454216</v>
       </c>
       <c r="W297" t="n">
-        <v>0.08472510427236557</v>
+        <v>3.13223063130863e-06</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4008970260620117</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.5204867720603943</v>
       </c>
       <c r="W298" t="n">
-        <v>0.00367404124699533</v>
+        <v>0.01430170703679323</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4001319408416748</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.5156378149986267</v>
       </c>
       <c r="W299" t="n">
-        <v>0.0003060950548388064</v>
+        <v>0.01334160659462214</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4019038677215576</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.5252096056938171</v>
       </c>
       <c r="W300" t="n">
-        <v>0.003834136528894305</v>
+        <v>0.01520430482923985</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3994951248168945</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.5285380482673645</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0898490771651268</v>
+        <v>0.01665207557380199</v>
       </c>
     </row>
     <row r="302" spans="1:23">
